--- a/notebooks/flare_diagnostics/flare_diagnostics.xlsx
+++ b/notebooks/flare_diagnostics/flare_diagnostics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupitatovar/flares/notebooks/flare_diagnostics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupitatovar/local_flares/notebooks/flare_diagnostics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="560" windowWidth="10000" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="30240" yWindow="460" windowWidth="25840" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
   <si>
     <t>Flare #</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Peak marked higher than interp_data</t>
-  </si>
-  <si>
-    <t>adjust start_stop</t>
   </si>
   <si>
     <t>adjust start_stop times</t>
@@ -56,15 +53,6 @@
     <t>complex</t>
   </si>
   <si>
-    <t>ask Jim</t>
-  </si>
-  <si>
-    <t>nosiy</t>
-  </si>
-  <si>
-    <t>maybe adjust start_stop?</t>
-  </si>
-  <si>
     <t>two flares</t>
   </si>
   <si>
@@ -74,13 +62,7 @@
     <t>noisy</t>
   </si>
   <si>
-    <t>Key:                                     1 = classical                        2 =adjust start/stop times                                   3 = Throw out (complex/noise)</t>
-  </si>
-  <si>
     <t>adjust start_stop times, 2 flares</t>
-  </si>
-  <si>
-    <t>ask jim if he'd adjust start_stop</t>
   </si>
   <si>
     <t xml:space="preserve">noisy </t>
@@ -89,19 +71,7 @@
     <t>complex/noisy</t>
   </si>
   <si>
-    <t xml:space="preserve">complex </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> noise</t>
-  </si>
-  <si>
-    <t>noise/complex</t>
-  </si>
-  <si>
     <t>two flares?</t>
-  </si>
-  <si>
-    <t>maybe complex?</t>
   </si>
   <si>
     <t>(near the end of the qrt)</t>
@@ -111,6 +81,12 @@
   </si>
   <si>
     <t>data break</t>
+  </si>
+  <si>
+    <t>Key:                                     1 = classical                        2 =adjust start/stop times                                   3 = complex                                   4=noise</t>
+  </si>
+  <si>
+    <t>good complex ex</t>
   </si>
 </sst>
 </file>
@@ -431,7 +407,7 @@
   <dimension ref="A1:E903"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A878" workbookViewId="0">
-      <selection activeCell="C891" sqref="C891"/>
+      <selection activeCell="C901" sqref="C901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,16 +427,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -488,66 +470,93 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -555,26 +564,35 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -584,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -595,42 +613,48 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -640,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,49 +675,70 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -702,24 +747,30 @@
       <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -728,19 +779,22 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -749,9 +803,6 @@
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -760,30 +811,30 @@
       <c r="B45">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>A47+1</f>
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -791,6 +842,9 @@
         <f t="shared" ref="A49:A112" si="0">A48+1</f>
         <v>47</v>
       </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -800,15 +854,15 @@
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -819,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -830,33 +884,42 @@
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -866,9 +929,6 @@
       <c r="B58">
         <v>3</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -879,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,10 +948,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -899,6 +959,9 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -908,38 +971,41 @@
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -950,27 +1016,33 @@
       <c r="B67">
         <v>3</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -980,15 +1052,15 @@
       <c r="B71">
         <v>3</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -999,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1008,10 +1080,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1019,30 +1091,45 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -1052,39 +1139,51 @@
       <c r="B80">
         <v>3</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -1095,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,66 +1202,99 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -1172,9 +1304,6 @@
       <c r="B98">
         <v>3</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -1184,9 +1313,6 @@
       <c r="B99">
         <v>3</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
@@ -1196,15 +1322,15 @@
       <c r="B100">
         <v>3</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
@@ -1217,18 +1343,27 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
@@ -1238,15 +1373,15 @@
       <c r="B106">
         <v>3</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A108">
@@ -1254,10 +1389,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,30 +1400,45 @@
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" ref="A113:A176" si="1">A112+1</f>
         <v>111</v>
       </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A114">
@@ -1296,10 +1446,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,45 +1460,60 @@
       <c r="B115">
         <v>3</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A122">
@@ -1356,10 +1521,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1370,9 +1535,6 @@
       <c r="B123">
         <v>3</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
@@ -1380,10 +1542,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>3</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1392,10 +1551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>3</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1403,12 +1559,18 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
@@ -1418,21 +1580,24 @@
       <c r="B128">
         <v>3</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
@@ -1442,57 +1607,78 @@
       <c r="B131">
         <v>3</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
     </row>
     <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A140">
@@ -1500,10 +1686,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1512,10 +1698,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1524,10 +1710,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -1536,10 +1722,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1548,10 +1734,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -1563,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,30 +1757,45 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
@@ -1602,10 +1803,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -1613,30 +1814,45 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A157">
@@ -1644,10 +1860,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1656,10 +1872,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -1667,12 +1883,18 @@
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
@@ -1680,10 +1902,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -1691,12 +1910,18 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
@@ -1704,10 +1929,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -1718,9 +1940,6 @@
       <c r="B165">
         <v>3</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="166" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A166">
@@ -1728,10 +1947,10 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -1740,10 +1959,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1752,10 +1968,10 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -1763,6 +1979,9 @@
         <f t="shared" si="1"/>
         <v>167</v>
       </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A170">
@@ -1770,10 +1989,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1782,10 +2001,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,12 +2012,18 @@
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A174">
@@ -1806,19 +2031,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>17</v>
+      <c r="B175">
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -1827,10 +2052,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>3</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,10 +2061,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1851,10 +2070,10 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -1862,30 +2081,45 @@
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
@@ -1893,10 +2127,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>3</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -1905,10 +2136,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>3</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,36 +2144,54 @@
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
@@ -1953,10 +2199,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -1964,18 +2207,27 @@
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
@@ -1983,10 +2235,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -1995,10 +2244,10 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,24 +2255,36 @@
         <f t="shared" si="2"/>
         <v>196</v>
       </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="2"/>
         <v>197</v>
       </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="2"/>
         <v>199</v>
       </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
@@ -2031,10 +2292,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2042,6 +2300,9 @@
         <f t="shared" si="2"/>
         <v>201</v>
       </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
@@ -2049,10 +2310,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>3</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -2060,36 +2318,54 @@
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="2"/>
         <v>205</v>
       </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="2"/>
         <v>207</v>
       </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
@@ -2097,10 +2373,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -2108,12 +2381,18 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
@@ -2121,10 +2400,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2133,10 +2409,10 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -2144,6 +2420,9 @@
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
@@ -2154,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2163,10 +2442,10 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -2174,6 +2453,9 @@
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
     </row>
     <row r="220" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A220">
@@ -2181,10 +2463,10 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,10 +2475,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,48 +2483,72 @@
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="2"/>
         <v>223</v>
       </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="2"/>
         <v>225</v>
       </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" si="2"/>
         <v>227</v>
       </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
@@ -2253,10 +2556,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -2264,18 +2564,27 @@
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
@@ -2283,10 +2592,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -2294,6 +2600,9 @@
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
@@ -2301,10 +2610,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>3</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2313,10 +2619,10 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2325,10 +2631,10 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,6 +2642,9 @@
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A240">
@@ -2343,10 +2652,10 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,6 +2663,9 @@
         <f t="shared" ref="A241:A304" si="3">A240+1</f>
         <v>239</v>
       </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
@@ -2361,10 +2673,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>3</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -2373,10 +2682,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>3</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,6 +2690,9 @@
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
@@ -2391,10 +2700,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>3</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,6 +2708,9 @@
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
+      <c r="B246">
+        <v>3</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
@@ -2409,10 +2718,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>3</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -2421,10 +2727,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -2433,10 +2736,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>3</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,9 +2747,6 @@
       <c r="B250">
         <v>3</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
@@ -2457,10 +2754,10 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -2469,10 +2766,10 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2481,10 +2778,10 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -2492,30 +2789,45 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A259">
@@ -2523,10 +2835,10 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,24 +2846,36 @@
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" si="3"/>
         <v>261</v>
       </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
@@ -2559,10 +2883,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>3</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -2570,12 +2891,18 @@
         <f t="shared" si="3"/>
         <v>263</v>
       </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <f t="shared" si="3"/>
         <v>264</v>
       </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
@@ -2583,10 +2910,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>3</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -2594,24 +2918,36 @@
         <f t="shared" si="3"/>
         <v>266</v>
       </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <f t="shared" si="3"/>
         <v>267</v>
       </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <f t="shared" si="3"/>
         <v>268</v>
       </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <f t="shared" si="3"/>
         <v>269</v>
       </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
     </row>
     <row r="272" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A272">
@@ -2619,10 +2955,10 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -2630,6 +2966,9 @@
         <f t="shared" si="3"/>
         <v>271</v>
       </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
@@ -2637,10 +2976,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>3</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,24 +2984,36 @@
         <f t="shared" si="3"/>
         <v>273</v>
       </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <f t="shared" si="3"/>
         <v>274</v>
       </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <f t="shared" si="3"/>
         <v>276</v>
       </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
     </row>
     <row r="279" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A279">
@@ -2673,10 +3021,10 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -2684,6 +3032,9 @@
         <f t="shared" si="3"/>
         <v>278</v>
       </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
     </row>
     <row r="281" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A281">
@@ -2691,10 +3042,10 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -2702,12 +3053,18 @@
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <f t="shared" si="3"/>
         <v>281</v>
       </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
@@ -2717,15 +3074,15 @@
       <c r="B284">
         <v>3</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <f t="shared" si="3"/>
         <v>283</v>
       </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
     </row>
     <row r="286" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A286">
@@ -2733,10 +3090,10 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2745,10 +3102,10 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -2757,10 +3114,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>3</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -2768,6 +3122,9 @@
         <f t="shared" si="3"/>
         <v>287</v>
       </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
     </row>
     <row r="290" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A290">
@@ -2775,10 +3132,10 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -2786,6 +3143,9 @@
         <f t="shared" si="3"/>
         <v>289</v>
       </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
@@ -2793,10 +3153,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>3</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -2804,18 +3161,27 @@
         <f t="shared" si="3"/>
         <v>291</v>
       </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <f t="shared" si="3"/>
         <v>292</v>
       </c>
+      <c r="B294">
+        <v>3</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <f t="shared" si="3"/>
         <v>293</v>
       </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
@@ -2823,10 +3189,10 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2838,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -2846,6 +3212,9 @@
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
@@ -2855,15 +3224,15 @@
       <c r="B299">
         <v>3</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <f t="shared" si="3"/>
         <v>298</v>
       </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
     </row>
     <row r="301" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A301">
@@ -2874,7 +3243,7 @@
         <v>2</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2883,10 +3252,10 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -2894,6 +3263,9 @@
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
@@ -2901,19 +3273,19 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>3</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
         <f t="shared" ref="A305:A368" si="4">A304+1</f>
         <v>303</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -2921,23 +3293,26 @@
       <c r="B306">
         <v>3</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -2945,65 +3320,71 @@
       <c r="B309">
         <v>3</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="B310">
-        <v>2</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>311</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="B314">
-        <v>3</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -3012,22 +3393,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>318</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -3036,10 +3426,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>3</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -3048,10 +3435,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>3</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -3060,10 +3444,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>3</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3072,10 +3453,10 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3084,10 +3465,10 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3096,10 +3477,10 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -3107,12 +3488,18 @@
         <f t="shared" si="4"/>
         <v>325</v>
       </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <f t="shared" si="4"/>
         <v>326</v>
       </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
@@ -3122,9 +3509,6 @@
       <c r="B329">
         <v>3</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
@@ -3132,10 +3516,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>3</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -3143,24 +3524,36 @@
         <f t="shared" si="4"/>
         <v>329</v>
       </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <f t="shared" si="4"/>
         <v>330</v>
       </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <f t="shared" si="4"/>
         <v>331</v>
       </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <f t="shared" si="4"/>
         <v>332</v>
       </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
@@ -3168,10 +3561,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>3</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -3179,74 +3569,83 @@
         <f t="shared" si="4"/>
         <v>334</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
         <f t="shared" si="4"/>
         <v>335</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
         <f t="shared" si="4"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="B340">
-        <v>3</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
         <f t="shared" si="4"/>
         <v>339</v>
       </c>
       <c r="B341">
-        <v>3</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="B342">
-        <v>3</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
         <f t="shared" si="4"/>
         <v>341</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
         <f t="shared" si="4"/>
         <v>343</v>
@@ -3254,68 +3653,68 @@
       <c r="B345">
         <v>3</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
         <f t="shared" si="4"/>
         <v>344</v>
       </c>
       <c r="B346">
-        <v>3</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
         <f t="shared" si="4"/>
         <v>345</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
         <f t="shared" si="4"/>
         <v>346</v>
       </c>
       <c r="B348">
-        <v>3</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
         <f t="shared" si="4"/>
         <v>347</v>
       </c>
       <c r="B349">
-        <v>2</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
         <f t="shared" si="4"/>
         <v>348</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
         <f t="shared" si="4"/>
         <v>349</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
         <f t="shared" si="4"/>
         <v>350</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -3323,24 +3722,36 @@
         <f t="shared" si="4"/>
         <v>351</v>
       </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <f t="shared" si="4"/>
         <v>352</v>
       </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <f t="shared" si="4"/>
         <v>353</v>
       </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
@@ -3350,9 +3761,6 @@
       <c r="B357">
         <v>3</v>
       </c>
-      <c r="C357" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
@@ -3360,10 +3768,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>3</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -3371,17 +3776,17 @@
         <f t="shared" si="4"/>
         <v>357</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <f t="shared" si="4"/>
         <v>358</v>
       </c>
       <c r="B360">
-        <v>2</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -3389,14 +3794,20 @@
         <f t="shared" si="4"/>
         <v>359</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A362">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="B362">
         <v>3</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -3404,30 +3815,45 @@
         <f t="shared" si="4"/>
         <v>361</v>
       </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <f t="shared" si="4"/>
         <v>362</v>
       </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <f t="shared" si="4"/>
         <v>363</v>
       </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <f t="shared" si="4"/>
         <v>364</v>
       </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <f t="shared" si="4"/>
         <v>365</v>
       </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
@@ -3437,17 +3863,17 @@
       <c r="B368">
         <v>3</v>
       </c>
-      <c r="C368" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
         <f t="shared" ref="A369:A432" si="5">A368+1</f>
         <v>367</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -3456,31 +3882,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
         <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="B372">
-        <v>3</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
         <f t="shared" si="5"/>
         <v>371</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -3488,80 +3917,95 @@
       <c r="B374">
         <v>3</v>
       </c>
-      <c r="C374" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
         <f t="shared" si="5"/>
         <v>373</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
         <f t="shared" si="5"/>
         <v>374</v>
       </c>
       <c r="B376">
-        <v>3</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378">
         <f t="shared" si="5"/>
         <v>376</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
         <f t="shared" si="5"/>
         <v>377</v>
       </c>
       <c r="B379">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
         <f t="shared" si="5"/>
         <v>378</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382">
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383">
         <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="B383">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
         <f t="shared" si="5"/>
         <v>382</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -3569,24 +4013,36 @@
         <f t="shared" si="5"/>
         <v>383</v>
       </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
         <f t="shared" si="5"/>
         <v>384</v>
       </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387">
         <f t="shared" si="5"/>
         <v>385</v>
       </c>
+      <c r="B387">
+        <v>3</v>
+      </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388">
         <f t="shared" si="5"/>
         <v>386</v>
       </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
@@ -3602,6 +4058,9 @@
         <f t="shared" si="5"/>
         <v>388</v>
       </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
@@ -3609,7 +4068,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -3635,12 +4094,18 @@
         <f t="shared" si="5"/>
         <v>392</v>
       </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
         <f t="shared" si="5"/>
         <v>393</v>
       </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396">
@@ -3648,7 +4113,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -3693,7 +4158,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -3701,6 +4166,9 @@
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403">
@@ -3725,42 +4193,63 @@
         <f t="shared" si="5"/>
         <v>403</v>
       </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406">
         <f t="shared" si="5"/>
         <v>404</v>
       </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
         <f t="shared" si="5"/>
         <v>405</v>
       </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408">
         <f t="shared" si="5"/>
         <v>406</v>
       </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409">
         <f t="shared" si="5"/>
         <v>407</v>
       </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410">
         <f t="shared" si="5"/>
         <v>408</v>
       </c>
+      <c r="B410">
+        <v>3</v>
+      </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411">
         <f t="shared" si="5"/>
         <v>409</v>
       </c>
+      <c r="B411">
+        <v>3</v>
+      </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412">
@@ -3768,7 +4257,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -3776,6 +4265,9 @@
         <f t="shared" si="5"/>
         <v>411</v>
       </c>
+      <c r="B413">
+        <v>3</v>
+      </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414">
@@ -3800,36 +4292,54 @@
         <f t="shared" si="5"/>
         <v>414</v>
       </c>
+      <c r="B416">
+        <v>3</v>
+      </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417">
         <f t="shared" si="5"/>
         <v>415</v>
       </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418">
         <f t="shared" si="5"/>
         <v>416</v>
       </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419">
         <f t="shared" si="5"/>
         <v>417</v>
       </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420">
         <f t="shared" si="5"/>
         <v>418</v>
       </c>
+      <c r="B420">
+        <v>3</v>
+      </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421">
         <f t="shared" si="5"/>
         <v>419</v>
       </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422">
@@ -3837,7 +4347,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -3845,18 +4355,27 @@
         <f t="shared" si="5"/>
         <v>421</v>
       </c>
+      <c r="B423">
+        <v>3</v>
+      </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424">
         <f t="shared" si="5"/>
         <v>422</v>
       </c>
+      <c r="B424">
+        <v>2</v>
+      </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425">
         <f t="shared" si="5"/>
         <v>423</v>
       </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426">
@@ -3864,7 +4383,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -3873,7 +4392,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -3881,6 +4400,9 @@
         <f t="shared" si="5"/>
         <v>426</v>
       </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429">
@@ -3905,12 +4427,18 @@
         <f t="shared" si="5"/>
         <v>429</v>
       </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432">
         <f t="shared" si="5"/>
         <v>430</v>
       </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433">
@@ -3926,6 +4454,9 @@
         <f t="shared" si="6"/>
         <v>432</v>
       </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435">
@@ -3968,18 +4499,27 @@
         <f t="shared" si="6"/>
         <v>437</v>
       </c>
+      <c r="B439">
+        <v>3</v>
+      </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440">
         <f t="shared" si="6"/>
         <v>438</v>
       </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441">
         <f t="shared" si="6"/>
         <v>439</v>
       </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442">
@@ -3995,48 +4535,72 @@
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
+      <c r="B443">
+        <v>3</v>
+      </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444">
         <f t="shared" si="6"/>
         <v>442</v>
       </c>
+      <c r="B444">
+        <v>3</v>
+      </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445">
         <f t="shared" si="6"/>
         <v>443</v>
       </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446">
         <f t="shared" si="6"/>
         <v>444</v>
       </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447">
         <f t="shared" si="6"/>
         <v>445</v>
       </c>
+      <c r="B447">
+        <v>3</v>
+      </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448">
         <f t="shared" si="6"/>
         <v>446</v>
       </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449">
         <f t="shared" si="6"/>
         <v>447</v>
       </c>
+      <c r="B449">
+        <v>3</v>
+      </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450">
         <f t="shared" si="6"/>
         <v>448</v>
       </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451">
@@ -4044,7 +4608,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -4052,12 +4616,18 @@
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453">
         <f t="shared" si="6"/>
         <v>451</v>
       </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454">
@@ -4065,7 +4635,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -4073,18 +4643,27 @@
         <f t="shared" si="6"/>
         <v>453</v>
       </c>
+      <c r="B455">
+        <v>3</v>
+      </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456">
         <f t="shared" si="6"/>
         <v>454</v>
       </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457">
         <f t="shared" si="6"/>
         <v>455</v>
       </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458">
@@ -4100,42 +4679,63 @@
         <f t="shared" si="6"/>
         <v>457</v>
       </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460">
         <f t="shared" si="6"/>
         <v>458</v>
       </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461">
         <f t="shared" si="6"/>
         <v>459</v>
       </c>
+      <c r="B461">
+        <v>3</v>
+      </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462">
         <f t="shared" si="6"/>
         <v>460</v>
       </c>
+      <c r="B462">
+        <v>3</v>
+      </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463">
         <f t="shared" si="6"/>
         <v>461</v>
       </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464">
         <f t="shared" si="6"/>
         <v>462</v>
       </c>
+      <c r="B464">
+        <v>2</v>
+      </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <f t="shared" si="6"/>
         <v>463</v>
       </c>
+      <c r="B465">
+        <v>3</v>
+      </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
@@ -4151,24 +4751,36 @@
         <f t="shared" si="6"/>
         <v>465</v>
       </c>
+      <c r="B467">
+        <v>2</v>
+      </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <f t="shared" si="6"/>
         <v>466</v>
       </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <f t="shared" si="6"/>
         <v>467</v>
       </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <f t="shared" si="6"/>
         <v>468</v>
       </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
@@ -4176,7 +4788,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -4203,10 +4815,10 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -4215,7 +4827,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -4223,12 +4835,18 @@
         <f t="shared" si="6"/>
         <v>474</v>
       </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <f t="shared" si="6"/>
         <v>475</v>
       </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
@@ -4238,15 +4856,15 @@
       <c r="B478">
         <v>3</v>
       </c>
-      <c r="C478" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <f t="shared" si="6"/>
         <v>477</v>
       </c>
+      <c r="B479">
+        <v>3</v>
+      </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
@@ -4254,7 +4872,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,6 +4889,9 @@
         <f t="shared" si="6"/>
         <v>480</v>
       </c>
+      <c r="B482">
+        <v>3</v>
+      </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483">
@@ -4286,36 +4907,54 @@
         <f t="shared" si="6"/>
         <v>482</v>
       </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485">
         <f t="shared" si="6"/>
         <v>483</v>
       </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486">
         <f t="shared" si="6"/>
         <v>484</v>
       </c>
+      <c r="B486">
+        <v>3</v>
+      </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487">
         <f t="shared" si="6"/>
         <v>485</v>
       </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488">
         <f t="shared" si="6"/>
         <v>486</v>
       </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489">
         <f t="shared" si="6"/>
         <v>487</v>
       </c>
+      <c r="B489">
+        <v>3</v>
+      </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490">
@@ -4331,6 +4970,9 @@
         <f t="shared" si="6"/>
         <v>489</v>
       </c>
+      <c r="B491">
+        <v>3</v>
+      </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492">
@@ -4347,7 +4989,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,6 +5006,9 @@
         <f t="shared" si="6"/>
         <v>493</v>
       </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496">
@@ -4371,55 +5016,73 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497">
         <f t="shared" ref="A497:A560" si="7">A496+1</f>
         <v>495</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B497">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498">
         <f t="shared" si="7"/>
         <v>496</v>
       </c>
       <c r="B498">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499">
         <f t="shared" si="7"/>
         <v>497</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500">
         <f t="shared" si="7"/>
         <v>498</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501">
         <f t="shared" si="7"/>
         <v>499</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503">
         <f t="shared" si="7"/>
         <v>501</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -4427,17 +5090,17 @@
       <c r="B504">
         <v>3</v>
       </c>
-      <c r="C504" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505">
         <f t="shared" si="7"/>
         <v>503</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -4445,44 +5108,44 @@
       <c r="B506">
         <v>3</v>
       </c>
-      <c r="C506" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507">
         <f t="shared" si="7"/>
         <v>505</v>
       </c>
       <c r="B507">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508">
         <f t="shared" si="7"/>
         <v>506</v>
       </c>
       <c r="B508">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509">
         <f t="shared" si="7"/>
         <v>507</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510">
         <f t="shared" si="7"/>
         <v>508</v>
       </c>
       <c r="B510">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -4490,20 +5153,17 @@
       <c r="B511">
         <v>3</v>
       </c>
-      <c r="C511" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512">
         <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="B512">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -4511,17 +5171,17 @@
       <c r="B513">
         <v>3</v>
       </c>
-      <c r="C513" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514">
         <f t="shared" si="7"/>
         <v>512</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -4530,46 +5190,61 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516">
         <f t="shared" si="7"/>
         <v>514</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517">
         <f t="shared" si="7"/>
         <v>515</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518">
         <f t="shared" si="7"/>
         <v>516</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519">
         <f t="shared" si="7"/>
         <v>517</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520">
         <f t="shared" si="7"/>
         <v>518</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521">
         <f t="shared" si="7"/>
         <v>519</v>
       </c>
       <c r="B521">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522">
         <f t="shared" si="7"/>
         <v>520</v>
@@ -4578,31 +5253,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523">
         <f t="shared" si="7"/>
         <v>521</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524">
         <f t="shared" si="7"/>
         <v>522</v>
       </c>
       <c r="B524">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525">
         <f t="shared" si="7"/>
         <v>523</v>
       </c>
       <c r="B525">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526">
         <f t="shared" si="7"/>
         <v>524</v>
@@ -4611,7 +5289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527">
         <f t="shared" si="7"/>
         <v>525</v>
@@ -4620,13 +5298,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528">
         <f t="shared" si="7"/>
         <v>526</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -4644,7 +5322,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -4661,12 +5339,18 @@
         <f t="shared" si="7"/>
         <v>530</v>
       </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533">
         <f t="shared" si="7"/>
         <v>531</v>
       </c>
+      <c r="B533">
+        <v>1</v>
+      </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534">
@@ -4674,7 +5358,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -4683,7 +5367,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -4691,6 +5375,9 @@
         <f t="shared" si="7"/>
         <v>534</v>
       </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537">
@@ -4706,6 +5393,9 @@
         <f t="shared" si="7"/>
         <v>536</v>
       </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539">
@@ -4713,7 +5403,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -4730,6 +5420,9 @@
         <f t="shared" si="7"/>
         <v>539</v>
       </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542">
@@ -4737,7 +5430,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -4746,7 +5439,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -4772,6 +5465,9 @@
         <f t="shared" si="7"/>
         <v>544</v>
       </c>
+      <c r="B546">
+        <v>3</v>
+      </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547">
@@ -4796,12 +5492,18 @@
         <f t="shared" si="7"/>
         <v>547</v>
       </c>
+      <c r="B549">
+        <v>1</v>
+      </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550">
         <f t="shared" si="7"/>
         <v>548</v>
       </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551">
@@ -4809,7 +5511,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -4817,6 +5519,9 @@
         <f t="shared" si="7"/>
         <v>550</v>
       </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553">
@@ -4826,9 +5531,6 @@
       <c r="B553">
         <v>3</v>
       </c>
-      <c r="C553" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554">
@@ -4838,9 +5540,6 @@
       <c r="B554">
         <v>3</v>
       </c>
-      <c r="C554" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555">
@@ -4856,6 +5555,9 @@
         <f t="shared" si="7"/>
         <v>554</v>
       </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
     </row>
     <row r="557" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A557">
@@ -4866,7 +5568,7 @@
         <v>3</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -4874,18 +5576,27 @@
         <f t="shared" si="7"/>
         <v>556</v>
       </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559">
         <f t="shared" si="7"/>
         <v>557</v>
       </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560">
         <f t="shared" si="7"/>
         <v>558</v>
       </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561">
@@ -4893,7 +5604,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -4910,6 +5621,9 @@
         <f t="shared" si="8"/>
         <v>561</v>
       </c>
+      <c r="B563">
+        <v>1</v>
+      </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564">
@@ -4917,7 +5631,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -4929,7 +5643,7 @@
         <v>3</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -4938,7 +5652,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -4947,7 +5661,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -4956,7 +5670,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -4973,6 +5687,9 @@
         <f t="shared" si="8"/>
         <v>568</v>
       </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571">
@@ -5016,7 +5733,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -5034,7 +5751,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -5042,18 +5759,27 @@
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579">
         <f t="shared" si="8"/>
         <v>577</v>
       </c>
+      <c r="B579">
+        <v>1</v>
+      </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580">
         <f t="shared" si="8"/>
         <v>578</v>
       </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581">
@@ -5087,12 +5813,18 @@
         <f t="shared" si="8"/>
         <v>582</v>
       </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585">
         <f t="shared" si="8"/>
         <v>583</v>
       </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586">
@@ -5117,6 +5849,9 @@
         <f t="shared" si="8"/>
         <v>586</v>
       </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589">
@@ -5127,7 +5862,7 @@
         <v>4</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -5135,6 +5870,9 @@
         <f t="shared" si="8"/>
         <v>588</v>
       </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591">
@@ -5142,7 +5880,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -5150,6 +5888,9 @@
         <f t="shared" si="8"/>
         <v>590</v>
       </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593">
@@ -5157,7 +5898,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -5166,7 +5907,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -5175,7 +5916,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -5193,7 +5934,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -5202,7 +5943,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -5210,6 +5951,9 @@
         <f t="shared" si="8"/>
         <v>597</v>
       </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600">
@@ -5265,7 +6009,7 @@
         <v>3</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -5274,10 +6018,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>3</v>
-      </c>
-      <c r="C606" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -5285,6 +6026,9 @@
         <f t="shared" si="8"/>
         <v>605</v>
       </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608">
@@ -5295,22 +6039,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609">
         <f t="shared" si="8"/>
         <v>607</v>
       </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610">
         <f t="shared" si="8"/>
         <v>608</v>
       </c>
       <c r="B610">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611">
         <f t="shared" si="8"/>
         <v>609</v>
@@ -5319,16 +6066,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612">
         <f t="shared" si="8"/>
         <v>610</v>
       </c>
       <c r="B612">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613">
         <f t="shared" si="8"/>
         <v>611</v>
@@ -5336,20 +6083,17 @@
       <c r="B613">
         <v>3</v>
       </c>
-      <c r="C613" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614">
         <f t="shared" si="8"/>
         <v>612</v>
       </c>
       <c r="B614">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615">
         <f t="shared" si="8"/>
         <v>613</v>
@@ -5358,7 +6102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616">
         <f t="shared" si="8"/>
         <v>614</v>
@@ -5367,13 +6111,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617">
         <f t="shared" si="8"/>
         <v>615</v>
       </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618">
         <f t="shared" si="8"/>
         <v>616</v>
@@ -5382,7 +6129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619">
         <f t="shared" si="8"/>
         <v>617</v>
@@ -5390,11 +6137,8 @@
       <c r="B619">
         <v>3</v>
       </c>
-      <c r="C619" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620">
         <f t="shared" si="8"/>
         <v>618</v>
@@ -5402,35 +6146,35 @@
       <c r="B620">
         <v>3</v>
       </c>
-      <c r="C620" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621">
         <f t="shared" si="8"/>
         <v>619</v>
       </c>
       <c r="B621">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622">
         <f t="shared" si="8"/>
         <v>620</v>
       </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623">
         <f t="shared" si="8"/>
         <v>621</v>
       </c>
       <c r="B623">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624">
         <f t="shared" si="8"/>
         <v>622</v>
@@ -5444,6 +6188,9 @@
         <f t="shared" ref="A625:A688" si="9">A624+1</f>
         <v>623</v>
       </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626">
@@ -5459,6 +6206,9 @@
         <f t="shared" si="9"/>
         <v>625</v>
       </c>
+      <c r="B627">
+        <v>1</v>
+      </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628">
@@ -5474,6 +6224,9 @@
         <f t="shared" si="9"/>
         <v>627</v>
       </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630">
@@ -5481,7 +6234,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -5489,6 +6242,9 @@
         <f t="shared" si="9"/>
         <v>629</v>
       </c>
+      <c r="B631">
+        <v>1</v>
+      </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632">
@@ -5505,7 +6261,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -5532,7 +6288,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -5549,12 +6305,18 @@
         <f t="shared" si="9"/>
         <v>636</v>
       </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639">
         <f t="shared" si="9"/>
         <v>637</v>
       </c>
+      <c r="B639">
+        <v>1</v>
+      </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640">
@@ -5565,16 +6327,19 @@
         <v>4</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641">
         <f t="shared" si="9"/>
         <v>639</v>
       </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642">
         <f t="shared" si="9"/>
         <v>640</v>
@@ -5583,7 +6348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643">
         <f t="shared" si="9"/>
         <v>641</v>
@@ -5592,13 +6357,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644">
         <f t="shared" si="9"/>
         <v>642</v>
       </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645">
         <f t="shared" si="9"/>
         <v>643</v>
@@ -5607,22 +6375,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646">
         <f t="shared" si="9"/>
         <v>644</v>
       </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647">
         <f t="shared" si="9"/>
         <v>645</v>
       </c>
       <c r="B647">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648">
         <f t="shared" si="9"/>
         <v>646</v>
@@ -5631,7 +6402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649">
         <f t="shared" si="9"/>
         <v>647</v>
@@ -5640,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650">
         <f t="shared" si="9"/>
         <v>648</v>
@@ -5649,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651">
         <f t="shared" si="9"/>
         <v>649</v>
@@ -5658,13 +6429,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652">
         <f t="shared" si="9"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653">
         <f t="shared" si="9"/>
         <v>651</v>
@@ -5673,7 +6447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654">
         <f t="shared" si="9"/>
         <v>652</v>
@@ -5682,7 +6456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655">
         <f t="shared" si="9"/>
         <v>653</v>
@@ -5691,7 +6465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656">
         <f t="shared" si="9"/>
         <v>654</v>
@@ -5699,11 +6473,8 @@
       <c r="B656">
         <v>3</v>
       </c>
-      <c r="C656" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657">
         <f t="shared" si="9"/>
         <v>655</v>
@@ -5712,7 +6483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658">
         <f t="shared" si="9"/>
         <v>656</v>
@@ -5721,7 +6492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659">
         <f t="shared" si="9"/>
         <v>657</v>
@@ -5729,17 +6500,17 @@
       <c r="B659">
         <v>3</v>
       </c>
-      <c r="C659" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660">
         <f t="shared" si="9"/>
         <v>658</v>
       </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661">
         <f t="shared" si="9"/>
         <v>659</v>
@@ -5748,7 +6519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662">
         <f t="shared" si="9"/>
         <v>660</v>
@@ -5757,7 +6528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663">
         <f t="shared" si="9"/>
         <v>661</v>
@@ -5766,7 +6537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664">
         <f t="shared" si="9"/>
         <v>662</v>
@@ -5775,7 +6546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665">
         <f t="shared" si="9"/>
         <v>663</v>
@@ -5784,22 +6555,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666">
         <f t="shared" si="9"/>
         <v>664</v>
       </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667">
         <f t="shared" si="9"/>
         <v>665</v>
       </c>
       <c r="B667">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668">
         <f t="shared" si="9"/>
         <v>666</v>
@@ -5808,7 +6582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669">
         <f t="shared" si="9"/>
         <v>667</v>
@@ -5817,7 +6591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670">
         <f t="shared" si="9"/>
         <v>668</v>
@@ -5826,7 +6600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671">
         <f t="shared" si="9"/>
         <v>669</v>
@@ -5835,16 +6609,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672">
         <f t="shared" si="9"/>
         <v>670</v>
       </c>
       <c r="B672">
         <v>3</v>
-      </c>
-      <c r="C672" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -5852,12 +6623,18 @@
         <f t="shared" si="9"/>
         <v>671</v>
       </c>
+      <c r="B673">
+        <v>3</v>
+      </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674">
         <f t="shared" si="9"/>
         <v>672</v>
       </c>
+      <c r="B674">
+        <v>1</v>
+      </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675">
@@ -5874,7 +6651,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -5882,6 +6659,9 @@
         <f t="shared" si="9"/>
         <v>675</v>
       </c>
+      <c r="B677">
+        <v>1</v>
+      </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678">
@@ -5915,6 +6695,9 @@
         <f t="shared" si="9"/>
         <v>679</v>
       </c>
+      <c r="B681">
+        <v>1</v>
+      </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682">
@@ -5922,7 +6705,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
@@ -5939,18 +6722,27 @@
         <f t="shared" si="9"/>
         <v>682</v>
       </c>
+      <c r="B684">
+        <v>1</v>
+      </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685">
         <f t="shared" si="9"/>
         <v>683</v>
       </c>
+      <c r="B685">
+        <v>1</v>
+      </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686">
         <f t="shared" si="9"/>
         <v>684</v>
       </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687">
@@ -5966,8 +6758,11 @@
         <f t="shared" si="9"/>
         <v>686</v>
       </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689">
         <f t="shared" ref="A689:A752" si="10">A688+1</f>
         <v>687</v>
@@ -5976,7 +6771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690">
         <f t="shared" si="10"/>
         <v>688</v>
@@ -5985,7 +6780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691">
         <f t="shared" si="10"/>
         <v>689</v>
@@ -5994,7 +6789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692">
         <f t="shared" si="10"/>
         <v>690</v>
@@ -6002,32 +6797,35 @@
       <c r="B692">
         <v>3</v>
       </c>
-      <c r="C692" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693">
         <f t="shared" si="10"/>
         <v>691</v>
       </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694">
         <f t="shared" si="10"/>
         <v>692</v>
       </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695">
         <f t="shared" si="10"/>
         <v>693</v>
       </c>
       <c r="B695">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696">
         <f t="shared" si="10"/>
         <v>694</v>
@@ -6036,19 +6834,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697">
         <f t="shared" si="10"/>
         <v>695</v>
       </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698">
         <f t="shared" si="10"/>
         <v>696</v>
       </c>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B698">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699">
         <f t="shared" si="10"/>
         <v>697</v>
@@ -6057,7 +6861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700">
         <f t="shared" si="10"/>
         <v>698</v>
@@ -6065,32 +6869,41 @@
       <c r="B700">
         <v>3</v>
       </c>
-      <c r="C700" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701">
         <f t="shared" si="10"/>
         <v>699</v>
       </c>
-    </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702">
         <f t="shared" si="10"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703">
         <f t="shared" si="10"/>
         <v>701</v>
       </c>
-    </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704">
         <f t="shared" si="10"/>
         <v>702</v>
+      </c>
+      <c r="B704">
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
@@ -6098,6 +6911,9 @@
         <f t="shared" si="10"/>
         <v>703</v>
       </c>
+      <c r="B705">
+        <v>1</v>
+      </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706">
@@ -6117,7 +6933,7 @@
         <v>3</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
@@ -6144,7 +6960,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
@@ -6161,12 +6977,18 @@
         <f t="shared" si="10"/>
         <v>710</v>
       </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713">
         <f t="shared" si="10"/>
         <v>711</v>
       </c>
+      <c r="B713">
+        <v>1</v>
+      </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714">
@@ -6174,7 +6996,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
@@ -6191,42 +7013,63 @@
         <f t="shared" si="10"/>
         <v>714</v>
       </c>
+      <c r="B716">
+        <v>1</v>
+      </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717">
         <f t="shared" si="10"/>
         <v>715</v>
       </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718">
         <f t="shared" si="10"/>
         <v>716</v>
       </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719">
         <f t="shared" si="10"/>
         <v>717</v>
       </c>
+      <c r="B719">
+        <v>1</v>
+      </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720">
         <f t="shared" si="10"/>
         <v>718</v>
       </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721">
         <f t="shared" si="10"/>
         <v>719</v>
       </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722">
         <f t="shared" si="10"/>
         <v>720</v>
       </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723">
@@ -6234,7 +7077,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -6242,24 +7085,36 @@
         <f t="shared" si="10"/>
         <v>722</v>
       </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725">
         <f t="shared" si="10"/>
         <v>723</v>
       </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726">
         <f t="shared" si="10"/>
         <v>724</v>
       </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727">
         <f t="shared" si="10"/>
         <v>725</v>
       </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728">
@@ -6275,6 +7130,9 @@
         <f t="shared" si="10"/>
         <v>727</v>
       </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730">
@@ -6303,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -6311,6 +7169,9 @@
         <f t="shared" si="10"/>
         <v>731</v>
       </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734">
@@ -6320,9 +7181,6 @@
       <c r="B734">
         <v>3</v>
       </c>
-      <c r="C734" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735">
@@ -6342,25 +7200,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737">
         <f t="shared" si="10"/>
         <v>735</v>
       </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738">
         <f t="shared" si="10"/>
         <v>736</v>
       </c>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739">
         <f t="shared" si="10"/>
         <v>737</v>
       </c>
-    </row>
-    <row r="740" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <f t="shared" si="10"/>
         <v>738</v>
@@ -6369,7 +7236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741">
         <f t="shared" si="10"/>
         <v>739</v>
@@ -6378,13 +7245,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742">
         <f t="shared" si="10"/>
         <v>740</v>
       </c>
-    </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743">
         <f t="shared" si="10"/>
         <v>741</v>
@@ -6393,19 +7263,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744">
         <f t="shared" si="10"/>
         <v>742</v>
       </c>
-    </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745">
         <f t="shared" si="10"/>
         <v>743</v>
       </c>
-    </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B745">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746">
         <f t="shared" si="10"/>
         <v>744</v>
@@ -6414,7 +7290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747">
         <f t="shared" si="10"/>
         <v>745</v>
@@ -6423,7 +7299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748">
         <f t="shared" si="10"/>
         <v>746</v>
@@ -6432,7 +7308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749">
         <f t="shared" si="10"/>
         <v>747</v>
@@ -6440,17 +7316,17 @@
       <c r="B749">
         <v>3</v>
       </c>
-      <c r="C749" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750">
         <f t="shared" si="10"/>
         <v>748</v>
       </c>
-    </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751">
         <f t="shared" si="10"/>
         <v>749</v>
@@ -6459,7 +7335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752">
         <f t="shared" si="10"/>
         <v>750</v>
@@ -6473,6 +7349,9 @@
         <f t="shared" ref="A753:A816" si="11">A752+1</f>
         <v>751</v>
       </c>
+      <c r="B753">
+        <v>1</v>
+      </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754">
@@ -6497,6 +7376,9 @@
         <f t="shared" si="11"/>
         <v>754</v>
       </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757">
@@ -6504,7 +7386,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
@@ -6512,12 +7394,18 @@
         <f t="shared" si="11"/>
         <v>756</v>
       </c>
+      <c r="B758">
+        <v>1</v>
+      </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759">
         <f t="shared" si="11"/>
         <v>757</v>
       </c>
+      <c r="B759">
+        <v>1</v>
+      </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760">
@@ -6533,6 +7421,9 @@
         <f t="shared" si="11"/>
         <v>759</v>
       </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762">
@@ -6548,24 +7439,36 @@
         <f t="shared" si="11"/>
         <v>761</v>
       </c>
+      <c r="B763">
+        <v>1</v>
+      </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764">
         <f t="shared" si="11"/>
         <v>762</v>
       </c>
+      <c r="B764">
+        <v>1</v>
+      </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765">
         <f t="shared" si="11"/>
         <v>763</v>
       </c>
+      <c r="B765">
+        <v>1</v>
+      </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766">
         <f t="shared" si="11"/>
         <v>764</v>
       </c>
+      <c r="B766">
+        <v>1</v>
+      </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767">
@@ -6581,20 +7484,29 @@
         <f t="shared" si="11"/>
         <v>766</v>
       </c>
-    </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769">
         <f t="shared" si="11"/>
         <v>767</v>
       </c>
-    </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770">
         <f t="shared" si="11"/>
         <v>768</v>
       </c>
-    </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771">
         <f t="shared" si="11"/>
         <v>769</v>
@@ -6603,13 +7515,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772">
         <f t="shared" si="11"/>
         <v>770</v>
       </c>
-    </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773">
         <f t="shared" si="11"/>
         <v>771</v>
@@ -6617,59 +7532,80 @@
       <c r="B773">
         <v>3</v>
       </c>
-      <c r="C773" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774">
         <f t="shared" si="11"/>
         <v>772</v>
       </c>
-    </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775">
         <f t="shared" si="11"/>
         <v>773</v>
       </c>
-    </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776">
         <f t="shared" si="11"/>
         <v>774</v>
       </c>
-    </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777">
         <f t="shared" si="11"/>
         <v>775</v>
       </c>
-    </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778">
         <f t="shared" si="11"/>
         <v>776</v>
       </c>
-    </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779">
         <f t="shared" si="11"/>
         <v>777</v>
       </c>
-    </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780">
         <f t="shared" si="11"/>
         <v>778</v>
       </c>
-    </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781">
         <f t="shared" si="11"/>
         <v>779</v>
       </c>
-    </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B781">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782">
         <f t="shared" si="11"/>
         <v>780</v>
@@ -6677,11 +7613,8 @@
       <c r="B782">
         <v>3</v>
       </c>
-      <c r="C782" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783">
         <f t="shared" si="11"/>
         <v>781</v>
@@ -6689,29 +7622,35 @@
       <c r="B783">
         <v>3</v>
       </c>
-      <c r="C783" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784">
         <f t="shared" si="11"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B784">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785">
         <f t="shared" si="11"/>
         <v>783</v>
       </c>
-    </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B785">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786">
         <f t="shared" si="11"/>
         <v>784</v>
       </c>
-    </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787">
         <f t="shared" si="11"/>
         <v>785</v>
@@ -6720,7 +7659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788">
         <f t="shared" si="11"/>
         <v>786</v>
@@ -6729,7 +7668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789">
         <f t="shared" si="11"/>
         <v>787</v>
@@ -6737,17 +7676,17 @@
       <c r="B789">
         <v>3</v>
       </c>
-      <c r="C789" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790">
         <f t="shared" si="11"/>
         <v>788</v>
       </c>
-    </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791">
         <f t="shared" si="11"/>
         <v>789</v>
@@ -6756,7 +7695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792">
         <f t="shared" si="11"/>
         <v>790</v>
@@ -6765,7 +7704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793">
         <f t="shared" si="11"/>
         <v>791</v>
@@ -6774,7 +7713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794">
         <f t="shared" si="11"/>
         <v>792</v>
@@ -6783,25 +7722,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795">
         <f t="shared" si="11"/>
         <v>793</v>
       </c>
-    </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796">
         <f t="shared" si="11"/>
         <v>794</v>
       </c>
-    </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797">
         <f t="shared" si="11"/>
         <v>795</v>
       </c>
-    </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798">
         <f t="shared" si="11"/>
         <v>796</v>
@@ -6810,7 +7758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799">
         <f t="shared" si="11"/>
         <v>797</v>
@@ -6819,10 +7767,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800">
         <f t="shared" si="11"/>
         <v>798</v>
+      </c>
+      <c r="B800">
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
@@ -6848,6 +7799,9 @@
         <f t="shared" si="11"/>
         <v>801</v>
       </c>
+      <c r="B803">
+        <v>1</v>
+      </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804">
@@ -6872,18 +7826,27 @@
         <f t="shared" si="11"/>
         <v>804</v>
       </c>
+      <c r="B806">
+        <v>1</v>
+      </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807">
         <f t="shared" si="11"/>
         <v>805</v>
       </c>
+      <c r="B807">
+        <v>1</v>
+      </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808">
         <f t="shared" si="11"/>
         <v>806</v>
       </c>
+      <c r="B808">
+        <v>1</v>
+      </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809">
@@ -6908,6 +7871,9 @@
         <f t="shared" si="11"/>
         <v>809</v>
       </c>
+      <c r="B811">
+        <v>1</v>
+      </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812">
@@ -6923,6 +7889,9 @@
         <f t="shared" si="11"/>
         <v>811</v>
       </c>
+      <c r="B813">
+        <v>1</v>
+      </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814">
@@ -6930,7 +7899,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
@@ -6951,7 +7920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817">
         <f t="shared" ref="A817:A880" si="12">A816+1</f>
         <v>815</v>
@@ -6960,7 +7929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818">
         <f t="shared" si="12"/>
         <v>816</v>
@@ -6969,40 +7938,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819">
         <f t="shared" si="12"/>
         <v>817</v>
       </c>
-    </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820">
         <f t="shared" si="12"/>
         <v>818</v>
       </c>
-    </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821">
         <f t="shared" si="12"/>
         <v>819</v>
       </c>
-    </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822">
         <f t="shared" si="12"/>
         <v>820</v>
       </c>
-    </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823">
         <f t="shared" si="12"/>
         <v>821</v>
       </c>
       <c r="B823">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824">
         <f t="shared" si="12"/>
         <v>822</v>
@@ -7010,17 +7991,17 @@
       <c r="B824">
         <v>3</v>
       </c>
-      <c r="C824" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825">
         <f t="shared" si="12"/>
         <v>823</v>
       </c>
-    </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826">
         <f t="shared" si="12"/>
         <v>824</v>
@@ -7029,7 +8010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827">
         <f t="shared" si="12"/>
         <v>825</v>
@@ -7038,19 +8019,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828">
         <f t="shared" si="12"/>
         <v>826</v>
       </c>
-    </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829">
         <f t="shared" si="12"/>
         <v>827</v>
       </c>
-    </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830">
         <f t="shared" si="12"/>
         <v>828</v>
@@ -7059,19 +8046,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831">
         <f t="shared" si="12"/>
         <v>829</v>
       </c>
-    </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832">
         <f t="shared" si="12"/>
         <v>830</v>
       </c>
-    </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833">
         <f t="shared" si="12"/>
         <v>831</v>
@@ -7079,17 +8072,17 @@
       <c r="B833">
         <v>3</v>
       </c>
-      <c r="C833" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834">
         <f t="shared" si="12"/>
         <v>832</v>
       </c>
-    </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B834">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835">
         <f t="shared" si="12"/>
         <v>833</v>
@@ -7098,7 +8091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836">
         <f t="shared" si="12"/>
         <v>834</v>
@@ -7107,13 +8100,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837">
         <f t="shared" si="12"/>
         <v>835</v>
       </c>
-    </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838">
         <f t="shared" si="12"/>
         <v>836</v>
@@ -7122,7 +8118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839">
         <f t="shared" si="12"/>
         <v>837</v>
@@ -7131,13 +8127,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840">
         <f t="shared" si="12"/>
         <v>838</v>
       </c>
-    </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841">
         <f t="shared" si="12"/>
         <v>839</v>
@@ -7146,13 +8145,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842">
         <f t="shared" si="12"/>
         <v>840</v>
       </c>
-    </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843">
         <f t="shared" si="12"/>
         <v>841</v>
@@ -7161,13 +8163,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844">
         <f t="shared" si="12"/>
         <v>842</v>
       </c>
-    </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845">
         <f t="shared" si="12"/>
         <v>843</v>
@@ -7176,25 +8181,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846">
         <f t="shared" si="12"/>
         <v>844</v>
       </c>
-    </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847">
         <f t="shared" si="12"/>
         <v>845</v>
       </c>
       <c r="B847">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848">
         <f t="shared" si="12"/>
         <v>846</v>
+      </c>
+      <c r="B848">
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
@@ -7211,24 +8222,36 @@
         <f t="shared" si="12"/>
         <v>848</v>
       </c>
+      <c r="B850">
+        <v>1</v>
+      </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851">
         <f t="shared" si="12"/>
         <v>849</v>
       </c>
+      <c r="B851">
+        <v>1</v>
+      </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852">
         <f t="shared" si="12"/>
         <v>850</v>
       </c>
+      <c r="B852">
+        <v>1</v>
+      </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853">
         <f t="shared" si="12"/>
         <v>851</v>
       </c>
+      <c r="B853">
+        <v>1</v>
+      </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854">
@@ -7244,6 +8267,9 @@
         <f t="shared" si="12"/>
         <v>853</v>
       </c>
+      <c r="B855">
+        <v>1</v>
+      </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856">
@@ -7277,6 +8303,9 @@
         <f t="shared" si="12"/>
         <v>857</v>
       </c>
+      <c r="B859">
+        <v>1</v>
+      </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860">
@@ -7337,6 +8366,9 @@
         <f t="shared" si="12"/>
         <v>864</v>
       </c>
+      <c r="B866">
+        <v>1</v>
+      </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867">
@@ -7379,6 +8411,9 @@
         <f t="shared" si="12"/>
         <v>869</v>
       </c>
+      <c r="B871">
+        <v>1</v>
+      </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872">
@@ -7412,6 +8447,9 @@
         <f t="shared" si="12"/>
         <v>873</v>
       </c>
+      <c r="B875">
+        <v>1</v>
+      </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876">
@@ -7427,6 +8465,9 @@
         <f t="shared" si="12"/>
         <v>875</v>
       </c>
+      <c r="B877">
+        <v>1</v>
+      </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878">
@@ -7457,8 +8498,11 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881">
-        <f t="shared" ref="A881:A904" si="13">A880+1</f>
+        <f t="shared" ref="A881:A903" si="13">A880+1</f>
         <v>879</v>
+      </c>
+      <c r="B881">
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -7475,36 +8519,54 @@
         <f t="shared" si="13"/>
         <v>881</v>
       </c>
+      <c r="B883">
+        <v>1</v>
+      </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884">
         <f t="shared" si="13"/>
         <v>882</v>
       </c>
+      <c r="B884">
+        <v>1</v>
+      </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885">
         <f t="shared" si="13"/>
         <v>883</v>
       </c>
+      <c r="B885">
+        <v>1</v>
+      </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886">
         <f t="shared" si="13"/>
         <v>884</v>
       </c>
+      <c r="B886">
+        <v>1</v>
+      </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887">
         <f t="shared" si="13"/>
         <v>885</v>
       </c>
+      <c r="B887">
+        <v>1</v>
+      </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888">
         <f t="shared" si="13"/>
         <v>886</v>
       </c>
+      <c r="B888">
+        <v>1</v>
+      </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889">
@@ -7530,7 +8592,7 @@
         <v>889</v>
       </c>
       <c r="B891">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
@@ -7547,18 +8609,27 @@
         <f t="shared" si="13"/>
         <v>891</v>
       </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894">
         <f t="shared" si="13"/>
         <v>892</v>
       </c>
+      <c r="B894">
+        <v>1</v>
+      </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895">
         <f t="shared" si="13"/>
         <v>893</v>
       </c>
+      <c r="B895">
+        <v>1</v>
+      </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896">
@@ -7574,24 +8645,36 @@
         <f t="shared" si="13"/>
         <v>895</v>
       </c>
+      <c r="B897">
+        <v>1</v>
+      </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898">
         <f t="shared" si="13"/>
         <v>896</v>
       </c>
+      <c r="B898">
+        <v>1</v>
+      </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899">
         <f t="shared" si="13"/>
         <v>897</v>
       </c>
+      <c r="B899">
+        <v>3</v>
+      </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900">
         <f t="shared" si="13"/>
         <v>898</v>
       </c>
+      <c r="B900">
+        <v>1</v>
+      </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901">
@@ -7606,6 +8689,9 @@
       <c r="A902">
         <f t="shared" si="13"/>
         <v>900</v>
+      </c>
+      <c r="B902">
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
